--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1284288.603604385</v>
+        <v>1278566.9916365</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836232</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>335.5910066412667</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>209.6076623789488</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.546296656423316</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>250.4044428170436</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X7" t="n">
-        <v>152.6509495310452</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>38.69604656255034</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>26.49677716875751</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.52687838733151</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>163.142351405544</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>64.14647130913964</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.8228810500183</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>27.65913193862787</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>106.7417167163244</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>83.35317719075449</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>143.9426278247057</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>34.43605357443374</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>52.98066560919346</v>
       </c>
       <c r="F31" t="n">
-        <v>28.43919684076969</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>104.2590660175759</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>191.2568862508033</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>132.5373350448686</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.5103646250808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>132.5373350448695</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>80.76468634461138</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>101.3208278811446</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>80.0012411808181</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>873.5844925784303</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2485.424179524335</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2485.424179524335</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2111.958421263255</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2033.346402544967</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>2033.346402544967</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1675.080703938216</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1289.292451339972</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>878.3065465503644</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>460.3427384485512</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.346402544967</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>544.5191867458693</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1760.906005007191</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>1760.906005007191</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1402.640306400441</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
         <v>1363.553390680693</v>
@@ -4801,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.38466963564</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.505845071313</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="Y8" t="n">
-        <v>2147.505845071313</v>
+        <v>2494.20718194981</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>394.4025473335336</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.3387302614404</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5044,16 +5044,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5266,40 +5266,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5360,25 +5360,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5387,19 +5387,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,46 +5500,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5612,31 +5612,31 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y18" t="n">
         <v>1138.808109517387</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1956.343466104704</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.093193329805</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1523.103642431788</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5770,19 +5770,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5828,37 +5828,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3086.205473691318</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763411</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763411</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763411</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4364.599222816072</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>4260.737726805953</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V22" t="n">
-        <v>4006.053238600066</v>
+        <v>1447.616197947449</v>
       </c>
       <c r="W22" t="n">
-        <v>3716.636068563105</v>
+        <v>1158.199027910488</v>
       </c>
       <c r="X22" t="n">
-        <v>3488.646517665088</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3267.853938521558</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2762.028521254639</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>761.5165984104578</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6966825353827</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D25" t="n">
-        <v>653.6966825353827</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1680.462453456021</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1680.462453456021</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.957642384228</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="W25" t="n">
-        <v>1163.957642384228</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="X25" t="n">
-        <v>1163.957642384228</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y25" t="n">
-        <v>943.1650632406976</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,52 +6211,52 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1002.806306216376</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.840519464784</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6268,10 +6268,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>688.4805750348107</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C28" t="n">
-        <v>688.4805750348107</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D28" t="n">
-        <v>688.4805750348107</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W28" t="n">
-        <v>909.2731541783409</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X28" t="n">
-        <v>909.2731541783409</v>
+        <v>703.4635059163079</v>
       </c>
       <c r="Y28" t="n">
-        <v>688.4805750348107</v>
+        <v>703.4635059163079</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2730.494725501681</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.2075193111406</v>
+        <v>782.7224647594986</v>
       </c>
       <c r="C31" t="n">
-        <v>438.2075193111406</v>
+        <v>613.7862818315917</v>
       </c>
       <c r="D31" t="n">
-        <v>438.2075193111406</v>
+        <v>463.669642419256</v>
       </c>
       <c r="E31" t="n">
-        <v>438.2075193111406</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6621,10 +6621,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X31" t="n">
-        <v>619.8559841413803</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="Y31" t="n">
-        <v>619.8559841413803</v>
+        <v>964.3709295897384</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608922</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N32" t="n">
-        <v>3316.966490094645</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>814.7290857654818</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C34" t="n">
-        <v>645.792902837575</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D34" t="n">
-        <v>495.6762634252392</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E34" t="n">
-        <v>347.7631698428461</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>200.8732223449357</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.57685067423</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1734.57685067423</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>1445.159680637269</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X34" t="n">
-        <v>1217.170129739252</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="Y34" t="n">
-        <v>996.3775505957216</v>
+        <v>708.1835515663147</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,19 +6937,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232731</v>
@@ -6964,25 +6964,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,58 +6992,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2917.269290763411</v>
+        <v>674.3568109459515</v>
       </c>
       <c r="C37" t="n">
-        <v>2917.269290763411</v>
+        <v>674.3568109459515</v>
       </c>
       <c r="D37" t="n">
-        <v>2917.269290763411</v>
+        <v>524.2401715336157</v>
       </c>
       <c r="E37" t="n">
-        <v>2917.269290763411</v>
+        <v>376.3270779512226</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763411</v>
+        <v>229.4371304533122</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493357</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W37" t="n">
-        <v>3441.564240456396</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X37" t="n">
-        <v>3213.574689558379</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y37" t="n">
-        <v>3098.917755593651</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7365,19 +7365,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.658977898817</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>1701.658977898817</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>1523.103642431788</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
@@ -7414,16 +7414,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3858.203957510972</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C43" t="n">
-        <v>3689.267774583066</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D43" t="n">
-        <v>3539.15113517073</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E43" t="n">
-        <v>3391.238041588337</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F43" t="n">
-        <v>3244.348094090426</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>3076.645257465145</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>2930.428070683003</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4778.05172241972</v>
+        <v>1874.762974847521</v>
       </c>
       <c r="T43" t="n">
-        <v>4778.05172241972</v>
+        <v>1652.996359417047</v>
       </c>
       <c r="U43" t="n">
-        <v>4778.05172241972</v>
+        <v>1363.89349254269</v>
       </c>
       <c r="V43" t="n">
-        <v>4778.05172241972</v>
+        <v>1109.209004336803</v>
       </c>
       <c r="W43" t="n">
-        <v>4488.634552382759</v>
+        <v>819.7918342998429</v>
       </c>
       <c r="X43" t="n">
-        <v>4260.645001484742</v>
+        <v>591.8022834018255</v>
       </c>
       <c r="Y43" t="n">
-        <v>4039.852422341212</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7654,13 +7654,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1104.146255802443</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C46" t="n">
-        <v>935.2100728745359</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D46" t="n">
-        <v>785.0934334622001</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>637.180339879807</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>490.2903923818966</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>322.5875557566155</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>176.3703689744733</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7836,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.57685067423</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1734.57685067423</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1734.57685067423</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>1506.587299776212</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>1285.794720632682</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.61882225792002</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>219.3344627260153</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>251.1867816683974</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400263</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11071,10 +11071,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>82.28749133742953</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>183.3889571555946</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>224.4785113852001</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>60.50510438230346</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>136.1957720854147</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>35.88935235723164</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>111.9979090721354</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>93.45329703737571</v>
       </c>
       <c r="F31" t="n">
-        <v>116.9818511821616</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76674224145232</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>27.32776710129153</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>33.4884732141596</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>47.29464513706776</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>83.32522828944178</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>109.0043389868305</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.92599321748322</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>16.35117922901999</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518223</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953968.8932518224</v>
+        <v>953968.8932518226</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>953968.8932518224</v>
+        <v>953968.8932518226</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="F2" t="n">
         <v>456644.0549200308</v>
-      </c>
-      <c r="F2" t="n">
-        <v>456644.0549200309</v>
       </c>
       <c r="G2" t="n">
         <v>456644.0549200309</v>
       </c>
       <c r="H2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="I2" t="n">
         <v>456644.0549200309</v>
@@ -26340,7 +26340,7 @@
         <v>456644.0549200308</v>
       </c>
       <c r="K2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200306</v>
       </c>
       <c r="L2" t="n">
         <v>456644.0549200308</v>
@@ -26349,13 +26349,13 @@
         <v>456644.0549200308</v>
       </c>
       <c r="N2" t="n">
+        <v>456644.0549200308</v>
+      </c>
+      <c r="O2" t="n">
         <v>456644.054920031</v>
       </c>
-      <c r="O2" t="n">
-        <v>456644.0549200309</v>
-      </c>
       <c r="P2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200307</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709187</v>
-      </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26484,16 +26484,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26505,7 +26505,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392934.5359984208</v>
+        <v>-392934.5359984207</v>
       </c>
       <c r="C6" t="n">
         <v>197033.3432161237</v>
       </c>
       <c r="D6" t="n">
-        <v>197033.3432161237</v>
+        <v>197033.3432161238</v>
       </c>
       <c r="E6" t="n">
-        <v>-388736.4853241815</v>
+        <v>-389408.4402264392</v>
       </c>
       <c r="F6" t="n">
-        <v>338640.9286692253</v>
+        <v>337968.9737669673</v>
       </c>
       <c r="G6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="H6" t="n">
-        <v>338640.9286692253</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="I6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="J6" t="n">
-        <v>162217.7094766323</v>
+        <v>161545.7545743746</v>
       </c>
       <c r="K6" t="n">
-        <v>338640.9286692255</v>
+        <v>337968.9737669671</v>
       </c>
       <c r="L6" t="n">
-        <v>338640.9286692253</v>
+        <v>337968.9737669674</v>
       </c>
       <c r="M6" t="n">
-        <v>208998.6138302806</v>
+        <v>208326.6589280226</v>
       </c>
       <c r="N6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669671</v>
       </c>
       <c r="O6" t="n">
-        <v>338640.9286692254</v>
+        <v>337968.9737669676</v>
       </c>
       <c r="P6" t="n">
-        <v>338640.9286692253</v>
+        <v>337968.9737669672</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>78.19316337952824</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>118.1445960911861</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>243.5913466674047</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>73.5183299473135</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>10.52067551358144</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X7" t="n">
-        <v>73.05870585799198</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>343.2343235097114</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>27.9816254060542</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.4387434050067</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>61.89275405254023</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>89.2320208001448</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>727.3874636142344</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>759.2397825566165</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>470.4443441954267</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>766.6741794499112</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
@@ -37791,10 +37791,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278566.9916365</v>
+        <v>1281972.482760949</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836232</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.4368283879286</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>335.5910066412667</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.95772706123027</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>104.3004803731276</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>378.5537128454094</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.49677716875751</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.52687838733151</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534548</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,7 +1466,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
         <v>18.81721868247745</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>59.42234841526867</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.26879610203982</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>177.4507143278946</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>64.14647130913964</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>14.54306763486927</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>27.65913193862787</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>83.35317719075449</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.9426278247057</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>131.5730391207948</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>52.98066560919346</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>61.08019102731622</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>191.2568862508033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>132.5373350448686</v>
+        <v>17.2558814784019</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.5373350448695</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>88.23797643592225</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>134.0389899623034</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>80.76468634461138</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>101.3208278811446</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>201.0130390227251</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.583944532628</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.318245925878</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5299933276337</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>873.5844925784303</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2652.747346511929</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2476.569858826099</v>
+        <v>2591.795070439306</v>
       </c>
       <c r="T5" t="n">
-        <v>2476.569858826099</v>
+        <v>2591.795070439306</v>
       </c>
       <c r="U5" t="n">
-        <v>2476.569858826099</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="V5" t="n">
-        <v>2476.569858826099</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W5" t="n">
-        <v>2476.569858826099</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>2476.569858826099</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>2476.569858826099</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>923.9266662611112</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>916.9811655119078</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2670.38466963564</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2494.20718194981</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2494.20718194981</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2494.20718194981</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2494.20718194981</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2494.20718194981</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>2494.20718194981</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4895,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785274</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661917</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837986</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.4168978689405</v>
+        <v>452.5901955154776</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>452.5901955154776</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>302.4735561031418</v>
       </c>
       <c r="E13" t="n">
         <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1883.949150983575</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1629.264662777688</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1339.847492740728</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.85794184271</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y13" t="n">
-        <v>891.0653626991802</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5387,19 +5387,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9043113423046</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9043113423046</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>260.9043113423046</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
         <v>242.4509819463048</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>722.1291797712734</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,46 +5515,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142067</v>
@@ -5624,19 +5624,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
         <v>1138.808109517387</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.2453974100822</v>
+        <v>741.6930623898346</v>
       </c>
       <c r="C19" t="n">
-        <v>307.2453974100822</v>
+        <v>572.7568794619277</v>
       </c>
       <c r="D19" t="n">
-        <v>307.2453974100822</v>
+        <v>572.7568794619277</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>424.8437858795346</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>277.9538383816242</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>110.2510017563432</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X19" t="n">
-        <v>709.6864413838521</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y19" t="n">
-        <v>488.8938622403219</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,16 +5737,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5758,46 +5758,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5940,22 +5940,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1447.616197947449</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1158.199027910488</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>930.2094770124706</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.4168978689405</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,16 +5974,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -6001,40 +6001,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6177,22 +6177,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1680.462453456021</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1680.462453456021</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1425.777965250134</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1425.777965250134</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.777965250134</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.985386106604</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6229,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6268,10 +6268,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6305,28 +6305,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6384,10 +6384,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>931.4530568143252</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>703.4635059163079</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>703.4635059163079</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6466,19 +6466,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107236</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.7224647594986</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C31" t="n">
-        <v>613.7862818315917</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>463.669642419256</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6621,10 +6621,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>964.3709295897384</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>964.3709295897384</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.3709295897384</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608922</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814247</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>708.1835515663147</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570251</v>
+        <v>937.4064487669579</v>
       </c>
       <c r="X34" t="n">
-        <v>901.3723255570251</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.1835515663147</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,28 +6937,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,58 +6992,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.3568109459515</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>674.3568109459515</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D37" t="n">
-        <v>524.2401715336157</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E37" t="n">
-        <v>376.3270779512226</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F37" t="n">
-        <v>229.4371304533122</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839441</v>
@@ -7095,10 +7095,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.138940987499</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>895.1493900894816</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.3568109459515</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>540.4807149410336</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>331.580251073499</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>331.580251073499</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>184.6903035755886</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.3568109459524</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7417,25 +7417,25 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2782.232616025903</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870721</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7481,22 +7481,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.1538185715858</v>
+        <v>844.8098170227823</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1538185715858</v>
+        <v>675.8736340948755</v>
       </c>
       <c r="D43" t="n">
-        <v>410.1538185715858</v>
+        <v>525.7569946825397</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>377.8439011001466</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>230.9539536022362</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1874.762974847521</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1652.996359417047</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1363.89349254269</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V43" t="n">
-        <v>1109.209004336803</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W43" t="n">
-        <v>819.7918342998429</v>
+        <v>1475.240411894569</v>
       </c>
       <c r="X43" t="n">
-        <v>591.8022834018255</v>
+        <v>1247.250860996552</v>
       </c>
       <c r="Y43" t="n">
-        <v>591.8022834018255</v>
+        <v>1026.458281853022</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>492.7083461157126</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>390.3640755286979</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
         <v>390.3640755286979</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459524</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476862</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,16 +9178,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400261</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,19 +10117,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>297.8289162490797</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400263</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476844</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>246.454569480844</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>87.01161423130051</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1651665445293</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>48.25894106114251</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>82.28749133742953</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>130.2119472794515</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,13 +23940,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>224.4785113852001</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>136.1957720854147</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.88935235723164</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>35.67378197783302</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>93.45329703737571</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>225.4428073092748</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>27.32776710129153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>33.4884732141596</v>
+        <v>148.7699267806263</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.29464513706776</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>77.78783182310598</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>31.98681829672483</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>109.0043389868305</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>65.92599321748322</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>85.50995931386586</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>953968.8932518224</v>
+        <v>953968.8932518227</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953968.8932518223</v>
+        <v>953968.8932518226</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>953968.8932518226</v>
+        <v>953968.8932518224</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>953968.8932518224</v>
+        <v>953968.8932518226</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26325,10 +26325,10 @@
         <v>456644.0549200309</v>
       </c>
       <c r="F2" t="n">
+        <v>456644.0549200309</v>
+      </c>
+      <c r="G2" t="n">
         <v>456644.0549200308</v>
-      </c>
-      <c r="G2" t="n">
-        <v>456644.0549200309</v>
       </c>
       <c r="H2" t="n">
         <v>456644.0549200309</v>
@@ -26337,25 +26337,25 @@
         <v>456644.0549200309</v>
       </c>
       <c r="J2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="K2" t="n">
-        <v>456644.0549200306</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="L2" t="n">
         <v>456644.0549200308</v>
       </c>
       <c r="M2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="N2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.054920031</v>
       </c>
       <c r="O2" t="n">
-        <v>456644.054920031</v>
+        <v>456644.0549200309</v>
       </c>
       <c r="P2" t="n">
-        <v>456644.0549200307</v>
+        <v>456644.0549200309</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="J4" t="n">
-        <v>21619.60799709189</v>
-      </c>
       <c r="K4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
@@ -26459,7 +26459,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26505,10 +26505,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392934.5359984207</v>
+        <v>-392934.5359984208</v>
       </c>
       <c r="C6" t="n">
-        <v>197033.3432161237</v>
+        <v>197033.3432161238</v>
       </c>
       <c r="D6" t="n">
         <v>197033.3432161238</v>
       </c>
       <c r="E6" t="n">
-        <v>-389408.4402264392</v>
+        <v>-388803.680814407</v>
       </c>
       <c r="F6" t="n">
-        <v>337968.9737669673</v>
+        <v>338573.7331789993</v>
       </c>
       <c r="G6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789994</v>
       </c>
       <c r="H6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="I6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789995</v>
       </c>
       <c r="J6" t="n">
-        <v>161545.7545743746</v>
+        <v>162150.5139864067</v>
       </c>
       <c r="K6" t="n">
-        <v>337968.9737669671</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="L6" t="n">
-        <v>337968.9737669674</v>
+        <v>338573.7331789995</v>
       </c>
       <c r="M6" t="n">
-        <v>208326.6589280226</v>
+        <v>208931.4183400548</v>
       </c>
       <c r="N6" t="n">
-        <v>337968.9737669671</v>
+        <v>338573.7331789996</v>
       </c>
       <c r="O6" t="n">
-        <v>337968.9737669676</v>
+        <v>338573.7331789995</v>
       </c>
       <c r="P6" t="n">
-        <v>337968.9737669672</v>
+        <v>338573.7331789996</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.836063383079</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.19316337952824</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047564</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10.52067551358144</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>70.11523243584392</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>35.23045717538554</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.9816254060542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.4387434050067</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>766.6741794499121</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,16 +35898,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36369,10 +36369,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282451</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>753.4190306414118</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>470.4443441954267</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359034</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>798.7564048937555</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
